--- a/doc/template/sno_ku.xlsx
+++ b/doc/template/sno_ku.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfk3\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Музмарт\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5900" tabRatio="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="0"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Внимание! Оплата данного счета означает согласие с условиями поставки товара. Уведомление об оплате 
  обязательно, в противном случае не гарантируется наличие товара на складе. Товар отпускается по факту
@@ -128,25 +128,22 @@
     <t>{uname}, ИНН {inn}, КПП {kpp}, {uadr}, тел.: {phone}</t>
   </si>
   <si>
-    <t>ООО "Кайрос", ИНН 7203265990, КПП 720301001, 625033, Тюменская обл, г. Тюмень, ул. Михаила Сперанского д.17, тел.: 8(3452) 589-564, 8 (800) 200-26-78</t>
-  </si>
-  <si>
-    <t>Филиал № 6602 Банка ВТБ (ПАО) в г. Екатеринбурге</t>
-  </si>
-  <si>
-    <t>30101810165770000501</t>
-  </si>
-  <si>
-    <t>40702810000020012036</t>
-  </si>
-  <si>
-    <t>К/Сч. №</t>
+    <t>Филиал "ЦЕНТРАЛЬНЫЙ" Банка ВТБ ПАО Г. МОСКВА</t>
+  </si>
+  <si>
+    <t>30101810145250000411</t>
+  </si>
+  <si>
+    <t>40702810200020012036</t>
+  </si>
+  <si>
+    <t>ООО "Кайрос", ИНН 7203265990, КПП 720301001, 625000, Тюменская обл, г. Тюмень, ул. Михаила Сперанского д.17, тел.: 8(3452) 589-564, 8 (800) 200-26-78</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000000000"/>
   </numFmts>
@@ -850,34 +847,34 @@
   </sheetPr>
   <dimension ref="A1:AL32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7:AL8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AP17" sqref="AP17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="10" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="1.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.44140625" style="1" customWidth="1"/>
-    <col min="5" max="15" width="3.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="1.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.5" style="1" customWidth="1"/>
+    <col min="5" max="15" width="3.5" style="1" customWidth="1"/>
     <col min="16" max="16" width="2.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="2.44140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="2.5" style="1" customWidth="1"/>
     <col min="18" max="19" width="2.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="3.44140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="3.5" style="1" customWidth="1"/>
     <col min="21" max="21" width="0.33203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="3.109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="3.44140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="3.1640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="3.5" style="1" customWidth="1"/>
     <col min="24" max="24" width="2.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="1.109375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="3.44140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="1.1640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="3.5" style="1" customWidth="1"/>
     <col min="27" max="27" width="2.33203125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="1.109375" style="1" customWidth="1"/>
-    <col min="29" max="31" width="3.44140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="1.1640625" style="1" customWidth="1"/>
+    <col min="29" max="31" width="3.5" style="1" customWidth="1"/>
     <col min="32" max="32" width="2.6640625" style="1" customWidth="1"/>
     <col min="33" max="33" width="0.6640625" style="1" customWidth="1"/>
-    <col min="34" max="37" width="3.44140625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="1.77734375" style="1" customWidth="1"/>
+    <col min="34" max="37" width="3.5" style="1" customWidth="1"/>
+    <col min="38" max="38" width="1.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:38" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -999,7 +996,7 @@
       <c r="AK3" s="36"/>
       <c r="AL3" s="36"/>
     </row>
-    <row r="4" spans="2:38" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:38" x14ac:dyDescent="0.2">
       <c r="K4" s="37" t="s">
         <v>24</v>
       </c>
@@ -1022,7 +1019,7 @@
       <c r="AB4" s="37"/>
       <c r="AC4" s="37"/>
     </row>
-    <row r="5" spans="2:38" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:38" x14ac:dyDescent="0.2">
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -1045,7 +1042,7 @@
     </row>
     <row r="6" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
@@ -1073,7 +1070,7 @@
       <c r="X6" s="39"/>
       <c r="Y6" s="39"/>
       <c r="Z6" s="40">
-        <v>46577501</v>
+        <v>44525411</v>
       </c>
       <c r="AA6" s="40"/>
       <c r="AB6" s="40"/>
@@ -1109,14 +1106,14 @@
       <c r="S7" s="38"/>
       <c r="T7" s="38"/>
       <c r="U7" s="35" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="V7" s="35"/>
       <c r="W7" s="35"/>
       <c r="X7" s="35"/>
       <c r="Y7" s="35"/>
       <c r="Z7" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA7" s="42"/>
       <c r="AB7" s="42"/>
@@ -1172,7 +1169,7 @@
       <c r="AK8" s="45"/>
       <c r="AL8" s="46"/>
     </row>
-    <row r="9" spans="2:38" ht="11.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:38" ht="12" x14ac:dyDescent="0.2">
       <c r="B9" s="33" t="s">
         <v>4</v>
       </c>
@@ -1208,7 +1205,7 @@
       <c r="X9" s="35"/>
       <c r="Y9" s="35"/>
       <c r="Z9" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA9" s="28"/>
       <c r="AB9" s="28"/>
@@ -1424,7 +1421,7 @@
       <c r="AK15" s="31"/>
       <c r="AL15" s="31"/>
     </row>
-    <row r="16" spans="2:38" s="1" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:38" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
@@ -1463,8 +1460,8 @@
       <c r="AK16" s="32"/>
       <c r="AL16" s="32"/>
     </row>
-    <row r="17" spans="1:38" s="1" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:38" ht="25.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:38" ht="25.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18" s="23" t="s">
         <v>8</v>
@@ -1474,7 +1471,7 @@
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
       <c r="G18" s="24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -1508,7 +1505,7 @@
       <c r="AK18" s="24"/>
       <c r="AL18" s="24"/>
     </row>
-    <row r="19" spans="1:38" s="1" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:38" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:38" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20" s="23" t="s">
@@ -1553,8 +1550,8 @@
       <c r="AK20" s="13"/>
       <c r="AL20" s="13"/>
     </row>
-    <row r="21" spans="1:38" s="1" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:38" ht="11.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:38" ht="12" x14ac:dyDescent="0.2">
       <c r="B22" s="25" t="s">
         <v>10</v>
       </c>
@@ -1605,7 +1602,7 @@
       <c r="AK22" s="27"/>
       <c r="AL22" s="27"/>
     </row>
-    <row r="23" spans="1:38" ht="11.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" s="14" t="s">
         <v>26</v>
@@ -1657,7 +1654,7 @@
       <c r="AK23" s="10"/>
       <c r="AL23" s="10"/>
     </row>
-    <row r="24" spans="1:38" s="1" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1696,7 +1693,7 @@
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
     </row>
-    <row r="25" spans="1:38" ht="11.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" ht="12" x14ac:dyDescent="0.2">
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
@@ -1713,7 +1710,7 @@
       <c r="AK25" s="11"/>
       <c r="AL25" s="11"/>
     </row>
-    <row r="26" spans="1:38" ht="11.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" ht="12" x14ac:dyDescent="0.2">
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -1730,7 +1727,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="11.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" ht="12" x14ac:dyDescent="0.2">
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -1747,7 +1744,7 @@
       <c r="AK27" s="11"/>
       <c r="AL27" s="11"/>
     </row>
-    <row r="28" spans="1:38" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" ht="12" x14ac:dyDescent="0.2">
       <c r="B28" s="12" t="s">
         <v>31</v>
       </c>
@@ -1788,7 +1785,7 @@
       <c r="AK28" s="12"/>
       <c r="AL28" s="12"/>
     </row>
-    <row r="29" spans="1:38" ht="13.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29" s="13" t="s">
         <v>32</v>
@@ -1830,7 +1827,7 @@
       <c r="AK29" s="13"/>
       <c r="AL29"/>
     </row>
-    <row r="30" spans="1:38" s="1" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1869,7 +1866,7 @@
       <c r="AK30" s="2"/>
       <c r="AL30" s="2"/>
     </row>
-    <row r="32" spans="1:38" ht="13.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32" s="5" t="s">
         <v>21</v>
